--- a/data/trans_dic/P44A$otras-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P44A$otras-Edad-trans_dic.xlsx
@@ -655,7 +655,7 @@
         <v>0.4650247117659275</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.01505414544542478</v>
+        <v>0.01505414544542479</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.3148518118785179</v>
@@ -664,7 +664,7 @@
         <v>0.2213627933321041</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.01327316472154922</v>
+        <v>0.01327316472154923</v>
       </c>
     </row>
     <row r="5">
@@ -678,28 +678,28 @@
         <v>0</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03627013928544799</v>
+        <v>0.03667510904756906</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2638896447598468</v>
+        <v>0.2662091774201004</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1680973470002842</v>
+        <v>0.1773964513683825</v>
       </c>
       <c r="H5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.162256534607339</v>
+        <v>0.1628894550026166</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1079252418865388</v>
+        <v>0.1067229721030802</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.002528048304917268</v>
+        <v>0.002540693288771179</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3335912184052567</v>
+        <v>0.327560575320602</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3254741963989339</v>
+        <v>0.2888619528302118</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05934455841144962</v>
+        <v>0.05691717016005762</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7402946648245422</v>
+        <v>0.6951701674402304</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.7944000774141746</v>
+        <v>0.7943288479474661</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.05611151524907994</v>
+        <v>0.05201105194217991</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4992153834908752</v>
+        <v>0.5013294019143326</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3922827447912885</v>
+        <v>0.3750339417288193</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03875767926107027</v>
+        <v>0.03982053935000775</v>
       </c>
     </row>
     <row r="7">
@@ -784,24 +784,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07914533529251774</v>
+        <v>0.0812635037510314</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1373660621455696</v>
+        <v>0.1449711479508713</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>0.1533542109366599</v>
+        <v>0.134060892371704</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1171615219808908</v>
+        <v>0.1151104573701074</v>
       </c>
       <c r="H8" s="5" t="inlineStr"/>
       <c r="I8" s="5" t="n">
-        <v>0.1396662073874503</v>
+        <v>0.1346790505316751</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1628328053377677</v>
+        <v>0.1603858321501878</v>
       </c>
       <c r="K8" s="5" t="inlineStr"/>
     </row>
@@ -813,24 +813,24 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3822832128480158</v>
+        <v>0.3628537296517441</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.413972215805357</v>
+        <v>0.3975008470380212</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
-        <v>0.4957763113255758</v>
+        <v>0.5116944365865145</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4265334262760062</v>
+        <v>0.4253539718358354</v>
       </c>
       <c r="H9" s="5" t="inlineStr"/>
       <c r="I9" s="5" t="n">
-        <v>0.3650162503902698</v>
+        <v>0.3643554748694468</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.353216135638629</v>
+        <v>0.356562478989501</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
     </row>
@@ -884,28 +884,28 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1780750279130407</v>
+        <v>0.1777449032712217</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003407762614435605</v>
+        <v>0.003462433995205513</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1552612707056917</v>
+        <v>0.1571883256009127</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1234720483761756</v>
+        <v>0.1217606958328055</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1074709512046411</v>
+        <v>0.106057449613834</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1895224736888795</v>
+        <v>0.1894931296979765</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002915836907919451</v>
+        <v>0.002990262446446509</v>
       </c>
     </row>
     <row r="12">
@@ -916,31 +916,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2111596638130724</v>
+        <v>0.2165945222819357</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4626085355179709</v>
+        <v>0.4742718719279067</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03302281713322668</v>
+        <v>0.03659723820936998</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4979171649188093</v>
+        <v>0.4755214239128552</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4283320301801543</v>
+        <v>0.4331680439122892</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01350631304152862</v>
+        <v>0.009644433981842993</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3204281281044148</v>
+        <v>0.3081658062755977</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4061443290575768</v>
+        <v>0.4012649347881893</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01820497095048445</v>
+        <v>0.0188198441429792</v>
       </c>
     </row>
     <row r="13">
@@ -970,7 +970,7 @@
         <v>0.2175547447641412</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.005525403644701807</v>
+        <v>0.005525403644701806</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.3244752639466638</v>
@@ -990,26 +990,26 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1242868257702413</v>
+        <v>0.1238319754577359</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.06894617606963131</v>
+        <v>0.08357315060298058</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
-        <v>0.2037137172469487</v>
+        <v>0.1653004276015031</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0829533570521914</v>
+        <v>0.09559654235707747</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2038785435750926</v>
+        <v>0.1817945094945728</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.114098185001791</v>
+        <v>0.1123766927541813</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>0</v>
@@ -1023,29 +1023,29 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5001770902810311</v>
+        <v>0.4577368008174125</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3280419501611837</v>
+        <v>0.3291263903501612</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.5927552569767492</v>
+        <v>0.5826344716829608</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4028885833710376</v>
+        <v>0.396423052557317</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02779830956071363</v>
+        <v>0.02736373735818442</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.484258677181916</v>
+        <v>0.4680811424498654</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3056096419452782</v>
+        <v>0.3220960893597473</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01463953179952342</v>
+        <v>0.0147601480314194</v>
       </c>
     </row>
     <row r="16">
@@ -1095,31 +1095,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09921729763617632</v>
+        <v>0.09740131407150063</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1641662239015072</v>
+        <v>0.1624285241887999</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.002127586739985627</v>
+        <v>0.002065606693984821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2630144275260097</v>
+        <v>0.2562301120616553</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1946421719066587</v>
+        <v>0.1865110828095554</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0009378360470028811</v>
+        <v>0.001384139975969613</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1967439282811159</v>
+        <v>0.1969485642965454</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.190838787744294</v>
+        <v>0.1879438834550776</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002489087053507432</v>
+        <v>0.002468882456616387</v>
       </c>
     </row>
     <row r="18">
@@ -1130,31 +1130,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.260840426262801</v>
+        <v>0.2482006372035832</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.30483426347349</v>
+        <v>0.3089244845355781</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01547192607764589</v>
+        <v>0.01533868323371247</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.4664131157006827</v>
+        <v>0.4417136915463675</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3643862360407529</v>
+        <v>0.3587874858519958</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.01065133897816195</v>
+        <v>0.01042322719106568</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3211729366833092</v>
+        <v>0.3186196956740068</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2972721437866863</v>
+        <v>0.2972554138515522</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01005435383558533</v>
+        <v>0.00961512964777651</v>
       </c>
     </row>
     <row r="19">
@@ -1386,28 +1386,28 @@
         <v>0</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>971</v>
+        <v>982</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5412</v>
+        <v>5460</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1855</v>
+        <v>1958</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>5627</v>
+        <v>5649</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>4082</v>
+        <v>4036</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="7">
@@ -1418,31 +1418,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4728</v>
+        <v>4642</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>8717</v>
+        <v>7736</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5637</v>
+        <v>5407</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>15183</v>
+        <v>14257</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>8768</v>
+        <v>8767</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4306</v>
+        <v>3992</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>17313</v>
+        <v>17387</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14836</v>
+        <v>14183</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>6656</v>
+        <v>6839</v>
       </c>
     </row>
     <row r="8">
@@ -1527,24 +1527,24 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3114</v>
+        <v>3197</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7197</v>
+        <v>7596</v>
       </c>
       <c r="E10" s="6" t="inlineStr"/>
       <c r="F10" s="6" t="n">
-        <v>5178</v>
+        <v>4526</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4433</v>
+        <v>4356</v>
       </c>
       <c r="H10" s="6" t="inlineStr"/>
       <c r="I10" s="6" t="n">
-        <v>10210</v>
+        <v>9846</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>14693</v>
+        <v>14472</v>
       </c>
       <c r="K10" s="6" t="inlineStr"/>
     </row>
@@ -1556,24 +1556,24 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>15039</v>
+        <v>14275</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>21690</v>
+        <v>20827</v>
       </c>
       <c r="E11" s="6" t="inlineStr"/>
       <c r="F11" s="6" t="n">
-        <v>16739</v>
+        <v>17277</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>16140</v>
+        <v>16095</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>26685</v>
+        <v>26636</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>31872</v>
+        <v>32174</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
     </row>
@@ -1662,28 +1662,28 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>7819</v>
+        <v>7805</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>4873</v>
+        <v>4933</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3851</v>
+        <v>3798</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>6663</v>
+        <v>6575</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14234</v>
+        <v>14232</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>977</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="15">
@@ -1694,31 +1694,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6464</v>
+        <v>6631</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>20314</v>
+        <v>20826</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>5865</v>
+        <v>6500</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>15626</v>
+        <v>14923</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13361</v>
+        <v>13512</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2128</v>
+        <v>1520</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>19866</v>
+        <v>19105</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30503</v>
+        <v>30137</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6102</v>
+        <v>6308</v>
       </c>
     </row>
     <row r="16">
@@ -1803,26 +1803,26 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3137</v>
+        <v>3126</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2523</v>
+        <v>3059</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
-        <v>4338</v>
+        <v>3520</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2991</v>
+        <v>3447</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>9487</v>
+        <v>8460</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>8290</v>
+        <v>8165</v>
       </c>
       <c r="K18" s="6" t="n">
         <v>0</v>
@@ -1836,29 +1836,29 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12624</v>
+        <v>11553</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12006</v>
+        <v>12045</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>12623</v>
+        <v>12407</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>14527</v>
+        <v>14293</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3319</v>
+        <v>3267</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>22535</v>
+        <v>21782</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>22204</v>
+        <v>23402</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>3281</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="20">
@@ -1943,31 +1943,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>10851</v>
+        <v>10652</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>26215</v>
+        <v>25938</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1215</v>
+        <v>1179</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>28130</v>
+        <v>27404</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>22603</v>
+        <v>21659</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>495</v>
+        <v>731</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>42559</v>
+        <v>42604</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>52636</v>
+        <v>51837</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2736</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="23">
@@ -1978,31 +1978,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28527</v>
+        <v>27145</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>48678</v>
+        <v>49331</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>8832</v>
+        <v>8756</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>49883</v>
+        <v>47242</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>42315</v>
+        <v>41665</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>5627</v>
+        <v>5506</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>69475</v>
+        <v>68923</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>81991</v>
+        <v>81987</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11051</v>
+        <v>10568</v>
       </c>
     </row>
     <row r="24">
